--- a/trunk/yipiao/static/download/教师导入模板.xlsx
+++ b/trunk/yipiao/static/download/教师导入模板.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView xWindow="660" yWindow="405" windowWidth="18015" windowHeight="8100"/>
+    <workbookView windowWidth="24000" windowHeight="9820"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4">
   <si>
     <t>姓名</t>
   </si>
@@ -34,29 +34,28 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
   <fonts count="5">
     <font>
       <sz val="11"/>
-      <color rgb="FF000000"/>
+      <color indexed="8"/>
       <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
+      <color indexed="8"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
@@ -67,19 +66,20 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="FF000000"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="3">
@@ -95,7 +95,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color rgb="FF000000"/>
+        <color indexed="8"/>
       </bottom>
       <diagonal/>
     </border>
@@ -109,37 +109,60 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  <cellStyleXfs count="6">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+  <cellXfs count="6">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="6">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="3" builtinId="6"/>
+    <cellStyle name="百分比" xfId="4" builtinId="5"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -184,69 +207,71 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="?? ?????"/>
-        <a:font script="Hang" typeface="?? ??"/>
-        <a:font script="Hans" typeface="??"/>
-        <a:font script="Hant" typeface="????"/>
         <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Khmr" typeface="MoolBoran"/>
         <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="?? ?????"/>
-        <a:font script="Hang" typeface="?? ??"/>
-        <a:font script="Hans" typeface="??"/>
-        <a:font script="Hant" typeface="????"/>
         <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Khmr" typeface="DaunPenh"/>
         <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Viet" typeface="Arial"/>
         <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -379,8 +404,8 @@
             <a:gs pos="40000">
               <a:schemeClr val="phClr">
                 <a:tint val="45000"/>
+                <a:satMod val="350000"/>
                 <a:shade val="99000"/>
-                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
@@ -416,81 +441,130 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
+  <a:objectDefaults>
+    <a:spDef>
+      <a:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="0" cy="0"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst>
+            <a:gd name="_h" fmla="val 21600"/>
+            <a:gd name="_w" fmla="val 21600"/>
+          </a:gdLst>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:pathLst>
+            <a:path w="21600" h="21600"/>
+          </a:pathLst>
+        </a:custGeom>
+        <a:gradFill rotWithShape="0">
+          <a:gsLst>
+            <a:gs pos="100000">
+              <a:srgbClr val="9CBEE0"/>
+            </a:gs>
+            <a:gs pos="0">
+              <a:srgbClr val="BBD5F0"/>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:ln w="15875" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:srgbClr val="739CC3"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="200000"/>
+        </a:ln>
+      </a:spPr>
+      <a:bodyPr/>
+      <a:lstStyle/>
+    </a:spDef>
+  </a:objectDefaults>
   <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="3"/>
   <cols>
-    <col min="3" max="3" width="9" style="4" customWidth="1"/>
+    <col min="1" max="2" width="9" style="2"/>
+    <col min="3" max="3" width="9" style="3" customWidth="1"/>
+    <col min="4" max="4" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="1" customFormat="1" ht="23.25" customHeight="1">
-      <c r="A1" s="2" t="s">
+    <row r="1" s="1" customFormat="1" ht="23.25" customHeight="1" spans="1:4">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="3"/>
-      <c r="B2" s="3"/>
-      <c r="D2" s="3"/>
+      <c r="A2" s="5"/>
+      <c r="B2" s="5"/>
+      <c r="D2" s="5"/>
     </row>
-    <row r="4" spans="1:4" ht="13.5">
-      <c r="C4"/>
+    <row r="4" spans="3:3">
+      <c r="C4" s="2"/>
     </row>
   </sheetData>
-  <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
-  <phoneticPr fontId="2" type="noConversion"/>
   <dataValidations count="1">
     <dataValidation showInputMessage="1" showErrorMessage="1" sqref="D1"/>
   </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
-  <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
-  <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="1" orientation="portrait"/>
+  <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
--- a/trunk/yipiao/static/download/教师导入模板.xlsx
+++ b/trunk/yipiao/static/download/教师导入模板.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="24000" windowHeight="9820"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9825"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>姓名</t>
   </si>
@@ -34,21 +34,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-  </numFmts>
   <fonts count="5">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -71,6 +60,11 @@
       <color indexed="8"/>
       <name val="宋体"/>
       <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -109,55 +103,40 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="6">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
-    <cellStyle name="货币" xfId="2" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="3" builtinId="6"/>
-    <cellStyle name="百分比" xfId="4" builtinId="5"/>
-    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -456,6 +435,7 @@
           </a:gdLst>
           <a:ahLst/>
           <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
           <a:pathLst>
             <a:path w="21600" h="21600"/>
           </a:pathLst>
@@ -488,83 +468,82 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
-  <dimension ref="A1:D4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="2" width="9" style="2"/>
-    <col min="3" max="3" width="9" style="3" customWidth="1"/>
-    <col min="4" max="4" width="9" style="2"/>
+    <col min="1" max="2" width="9" style="1"/>
+    <col min="3" max="3" width="9" style="2" customWidth="1"/>
+    <col min="4" max="4" width="9" style="1"/>
+    <col min="5" max="5" width="14.375" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="23.25" customHeight="1" spans="1:4">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:5" s="6" customFormat="1" ht="23.25" customHeight="1">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
+      <c r="E1" s="5"/>
     </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="5"/>
-      <c r="B2" s="5"/>
-      <c r="D2" s="5"/>
+    <row r="2" spans="1:5">
+      <c r="A2" s="4"/>
+      <c r="B2" s="4"/>
+      <c r="D2" s="4"/>
     </row>
-    <row r="4" spans="3:3">
-      <c r="C4" s="2"/>
+    <row r="4" spans="1:5" ht="13.5">
+      <c r="C4" s="1"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
   <dataValidations count="1">
     <dataValidation showInputMessage="1" showErrorMessage="1" sqref="D1"/>
   </dataValidations>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <headerFooter alignWithMargins="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetData/>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter alignWithMargins="0"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
-  <sheetData/>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="portrait"/>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
--- a/trunk/yipiao/static/download/教师导入模板.xlsx
+++ b/trunk/yipiao/static/download/教师导入模板.xlsx
@@ -1,27 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9825"/>
+    <workbookView windowWidth="24000" windowHeight="9840"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="144525"/>
+  <extLst/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4">
   <si>
     <t>姓名</t>
   </si>
   <si>
-    <t>用户名</t>
+    <t>用户名(建议填邮箱或手机)</t>
   </si>
   <si>
     <t>性别</t>
@@ -34,6 +35,12 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
   <fonts count="5">
     <font>
       <sz val="11"/>
@@ -63,7 +70,7 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="12"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -103,8 +110,23 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -112,6 +134,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -120,23 +145,23 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="6">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="3" builtinId="6"/>
+    <cellStyle name="百分比" xfId="4" builtinId="5"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -435,18 +460,17 @@
           </a:gdLst>
           <a:ahLst/>
           <a:cxnLst/>
-          <a:rect l="0" t="0" r="0" b="0"/>
           <a:pathLst>
             <a:path w="21600" h="21600"/>
           </a:pathLst>
         </a:custGeom>
         <a:gradFill rotWithShape="0">
           <a:gsLst>
+            <a:gs pos="0">
+              <a:srgbClr val="BBD5F0"/>
+            </a:gs>
             <a:gs pos="100000">
               <a:srgbClr val="9CBEE0"/>
-            </a:gs>
-            <a:gs pos="0">
-              <a:srgbClr val="BBD5F0"/>
             </a:gs>
           </a:gsLst>
           <a:lin ang="5400000" scaled="0"/>
@@ -468,82 +492,87 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="3" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="2" width="9" style="1"/>
-    <col min="3" max="3" width="9" style="2" customWidth="1"/>
-    <col min="4" max="4" width="9" style="1"/>
-    <col min="5" max="5" width="14.375" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="9" style="1"/>
+    <col min="1" max="1" width="9" style="2"/>
+    <col min="2" max="2" width="27.125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="9" style="3" customWidth="1"/>
+    <col min="4" max="4" width="9" style="2"/>
+    <col min="5" max="5" width="14.375" style="2" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="6" customFormat="1" ht="23.25" customHeight="1">
-      <c r="A1" s="3" t="s">
+    <row r="1" s="1" customFormat="1" ht="23.25" customHeight="1" spans="1:5">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="5"/>
     </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="4"/>
-      <c r="B2" s="4"/>
-      <c r="D2" s="4"/>
+    <row r="2" spans="1:4">
+      <c r="A2" s="6"/>
+      <c r="B2" s="6"/>
+      <c r="D2" s="6"/>
     </row>
-    <row r="4" spans="1:5" ht="13.5">
-      <c r="C4" s="1"/>
+    <row r="4" ht="13.5" spans="3:3">
+      <c r="C4" s="2"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
   <dataValidations count="1">
     <dataValidation showInputMessage="1" showErrorMessage="1" sqref="D1"/>
   </dataValidations>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <headerFooter alignWithMargins="0"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
-  <sheetData/>
-  <phoneticPr fontId="4" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
-  <phoneticPr fontId="4" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter alignWithMargins="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetData/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="1" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>